--- a/public/template-excel/keuanganhaji/pengelolaan/penyertaan_saham.xlsx
+++ b/public/template-excel/keuanganhaji/pengelolaan/penyertaan_saham.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAMMING\BPKH\sampel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\keuanganhaji\pengelolaan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4960BCB5-5321-4044-B067-6AB2BCD28A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BC5CC5-E9B0-45DB-AFF3-49D42AC1AE0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,122 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>BANK SYARIAH MANDIRI</t>
-  </si>
-  <si>
-    <t>BRI SYARIAH</t>
-  </si>
-  <si>
-    <t>BNI SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK MUAMALAT INDONESIA</t>
-  </si>
-  <si>
-    <t>BANK TABUNGAN NEGARA SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK PERMATA SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK CIMB NIAGA SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK MEGA SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK PANIN DUBAI SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK JATIM SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK SUMUT SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK JATENG SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK ACEH SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK SUMSEL BABEL SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK NAGARI SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK RIAU KEPRI SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK OCBC NISP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTPN SYARIAH </t>
-  </si>
-  <si>
-    <t>MAYBANK SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK DKI SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK DANAMON</t>
-  </si>
-  <si>
-    <t>BANK KALTIM</t>
-  </si>
-  <si>
-    <t>BANK BCA SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK BUKOPIN</t>
-  </si>
-  <si>
-    <t>BANK SINARMAS</t>
-  </si>
-  <si>
-    <t>BANK JAMBI UUS</t>
-  </si>
-  <si>
-    <t>BANK KALSEL UUS</t>
-  </si>
-  <si>
-    <t>BANK KALBAR UUS</t>
-  </si>
-  <si>
-    <t>BANK NTB SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK JABAR BANTEN SYARIAH</t>
-  </si>
-  <si>
-    <t>BANK DIY</t>
-  </si>
-  <si>
-    <t>BANK SULSELBAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Nama Perusahaan</t>
+    <t>Instrumen Investasi</t>
   </si>
   <si>
-    <t>Januari</t>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>Penyertaan Saham BMI - DAU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +90,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,17 +174,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma [0] 2" xfId="4" xr:uid="{5B4C710E-89F6-4DCF-A6B7-3D7CA3149F99}"/>
@@ -634,315 +535,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="7">
-        <v>2020</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>110000000000000</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>24308703000</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>14475280117429.105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>8152200055044.3379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7180440975460.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4415099412476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2672054452874.6001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2387609393782.8999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1579144307262.3601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1524966691558.0164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>964528678436.80005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>727880736879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>813887431565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>599335452211.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>595456290530.51001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>422217766069.09998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>903058978715.66003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>164017651404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4">
-        <v>147722789102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>167076810045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4">
-        <v>151962714108.56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4">
-        <v>56735082908.800003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4">
-        <v>18879841133.860001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4">
-        <v>11750787093.120001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4">
-        <v>10441302979.219999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
-        <v>15344640298.969999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>201223013698.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4">
-        <v>4158376307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4">
-        <v>4134177994.4300003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4">
-        <v>700000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6">
-        <f>SUM(B2:B33)</f>
-        <v>158367357927369.5</v>
-      </c>
+        <f>SUM(B2:B2)</f>
+        <v>24308703000</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
